--- a/Session_4/Backpropagation/Backpropagation_calculation.xlsx
+++ b/Session_4/Backpropagation/Backpropagation_calculation.xlsx
@@ -1687,11 +1687,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="835409120"/>
-        <c:axId val="1017543568"/>
+        <c:axId val="1484600128"/>
+        <c:axId val="1685316464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="835409120"/>
+        <c:axId val="1484600128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1796,7 +1796,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1017543568"/>
+        <c:crossAx val="1685316464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1804,7 +1804,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1017543568"/>
+        <c:axId val="1685316464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1931,7 +1931,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="835409120"/>
+        <c:crossAx val="1484600128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2572,7 +2572,7 @@
         <xdr:cNvPr id="39" name="Group 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C285E83-EC46-4002-923A-208A2094C141}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5C285E83-EC46-4002-923A-208A2094C141}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2580,8 +2580,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="612321" y="1483179"/>
-          <a:ext cx="6575453" cy="2193020"/>
+          <a:off x="607219" y="1476375"/>
+          <a:ext cx="8883564" cy="2193020"/>
           <a:chOff x="371475" y="2038350"/>
           <a:chExt cx="6010275" cy="1914525"/>
         </a:xfrm>
@@ -2599,7 +2599,7 @@
           <xdr:cNvPr id="40" name="Oval 39">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CCBAAFE-C636-4D30-B26B-71501BC6A672}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5CCBAAFE-C636-4D30-B26B-71501BC6A672}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2650,7 +2650,7 @@
           <xdr:cNvPr id="41" name="Group 40">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{347135C2-D2A5-4374-A239-49A3B663732B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{347135C2-D2A5-4374-A239-49A3B663732B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2669,7 +2669,7 @@
             <xdr:cNvPr id="42" name="Oval 41">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{779A879E-B6E5-4AF0-85FA-B4E27C054709}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{779A879E-B6E5-4AF0-85FA-B4E27C054709}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2723,7 +2723,7 @@
             <xdr:cNvPr id="43" name="Oval 42">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90A78873-2A8B-4E39-9463-82B4FA36BF0C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{90A78873-2A8B-4E39-9463-82B4FA36BF0C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2771,7 +2771,7 @@
             <xdr:cNvPr id="44" name="Oval 43">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE867243-EF54-4A3D-8B15-DFABFCF8EDC1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AE867243-EF54-4A3D-8B15-DFABFCF8EDC1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2825,7 +2825,7 @@
             <xdr:cNvPr id="45" name="Oval 44">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29E45929-0310-445A-BD2F-83B0C5744EC3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29E45929-0310-445A-BD2F-83B0C5744EC3}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2873,7 +2873,7 @@
             <xdr:cNvPr id="46" name="Oval 45">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74D15780-BE59-4DDB-9DAF-EAFAE28E941E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{74D15780-BE59-4DDB-9DAF-EAFAE28E941E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2927,7 +2927,7 @@
             <xdr:cNvPr id="47" name="Oval 46">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C89AD9B-85A4-4AA1-A98A-57A9965DCFD7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9C89AD9B-85A4-4AA1-A98A-57A9965DCFD7}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2981,7 +2981,7 @@
             <xdr:cNvPr id="48" name="Oval 47">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC9F44C1-F954-4499-9D34-F5843067CEF1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EC9F44C1-F954-4499-9D34-F5843067CEF1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3034,7 +3034,7 @@
             <xdr:cNvPr id="49" name="Oval 48">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F1BC244-6D91-4C6D-9D64-B257F2B74E27}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8F1BC244-6D91-4C6D-9D64-B257F2B74E27}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3097,7 +3097,7 @@
             <xdr:cNvPr id="50" name="Oval 49">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EDDFD83-3FC9-4CBA-9E5C-0BC432868F0E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0EDDFD83-3FC9-4CBA-9E5C-0BC432868F0E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3160,7 +3160,7 @@
             <xdr:cNvPr id="51" name="Straight Arrow Connector 50" descr="W1&#10;">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B0BB8A1-69A9-49C5-8262-E0EBE4632FD2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1B0BB8A1-69A9-49C5-8262-E0EBE4632FD2}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3201,7 +3201,7 @@
             <xdr:cNvPr id="52" name="Straight Arrow Connector 51">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE238967-6425-4C2E-A22F-72A9B38E3DDA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AE238967-6425-4C2E-A22F-72A9B38E3DDA}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3242,7 +3242,7 @@
             <xdr:cNvPr id="53" name="Connector: Curved 22">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50224702-D66A-4186-96D4-CC839A49C04C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{50224702-D66A-4186-96D4-CC839A49C04C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3285,7 +3285,7 @@
             <xdr:cNvPr id="54" name="Connector: Curved 28">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80F012B1-3186-4810-B595-014BFDA5E0CC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{80F012B1-3186-4810-B595-014BFDA5E0CC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3328,7 +3328,7 @@
             <xdr:cNvPr id="55" name="Connector: Curved 30">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0811D55-44D2-4A52-B1C2-B75FF02DE09E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E0811D55-44D2-4A52-B1C2-B75FF02DE09E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3371,7 +3371,7 @@
             <xdr:cNvPr id="56" name="Connector: Curved 35">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8129C4B1-3B02-4AE1-8E3F-9122918CA144}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8129C4B1-3B02-4AE1-8E3F-9122918CA144}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3414,7 +3414,7 @@
             <xdr:cNvPr id="57" name="Straight Arrow Connector 56">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BC6E32-2FCC-4423-A596-2187119478FD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BC6E32-2FCC-4423-A596-2187119478FD}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3455,7 +3455,7 @@
             <xdr:cNvPr id="58" name="Straight Arrow Connector 57">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7B02458-A2E8-467E-833B-24BD5C5D08F5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A7B02458-A2E8-467E-833B-24BD5C5D08F5}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3496,7 +3496,7 @@
             <xdr:cNvPr id="59" name="Straight Arrow Connector 58">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3011615F-96FE-46BB-A821-A89679DAD3E2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3011615F-96FE-46BB-A821-A89679DAD3E2}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3537,7 +3537,7 @@
             <xdr:cNvPr id="60" name="Straight Arrow Connector 59">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47079B9A-CE4C-488A-9230-ADC5A4E5D4C8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47079B9A-CE4C-488A-9230-ADC5A4E5D4C8}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3578,7 +3578,7 @@
             <xdr:cNvPr id="61" name="Straight Arrow Connector 60">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4561242-7CA9-4BC5-A067-1C5B8E09EB96}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F4561242-7CA9-4BC5-A067-1C5B8E09EB96}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3619,7 +3619,7 @@
             <xdr:cNvPr id="62" name="Straight Arrow Connector 61">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFA8604A-06F5-41A0-99F2-5D7F3FC75BE8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EFA8604A-06F5-41A0-99F2-5D7F3FC75BE8}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3660,7 +3660,7 @@
             <xdr:cNvPr id="63" name="Straight Arrow Connector 62">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2BFE264-06EF-4DE7-8639-29DCC484AA09}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F2BFE264-06EF-4DE7-8639-29DCC484AA09}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3701,7 +3701,7 @@
             <xdr:cNvPr id="64" name="Straight Arrow Connector 63">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86B5043B-57CE-4ABB-A9E6-C7B2DCF57479}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{86B5043B-57CE-4ABB-A9E6-C7B2DCF57479}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3742,7 +3742,7 @@
             <xdr:cNvPr id="65" name="TextBox 64">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35B851D4-F17A-4DAF-AF1A-D483EF424741}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{35B851D4-F17A-4DAF-AF1A-D483EF424741}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3799,7 +3799,7 @@
             <xdr:cNvPr id="66" name="TextBox 65">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B231B2F-2A7D-4E69-AE60-8653540A8392}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1B231B2F-2A7D-4E69-AE60-8653540A8392}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3856,7 +3856,7 @@
             <xdr:cNvPr id="67" name="TextBox 66">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A96FAAB-1B79-4D2B-A85A-B4D80BFC577A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A96FAAB-1B79-4D2B-A85A-B4D80BFC577A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3913,7 +3913,7 @@
             <xdr:cNvPr id="68" name="TextBox 67">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D284866F-BB86-49A7-8445-82EDB3B695D3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D284866F-BB86-49A7-8445-82EDB3B695D3}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3970,7 +3970,7 @@
             <xdr:cNvPr id="69" name="TextBox 68">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FFEBCF8-92A1-48F2-9FC0-A84BCE939FDF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7FFEBCF8-92A1-48F2-9FC0-A84BCE939FDF}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4027,7 +4027,7 @@
             <xdr:cNvPr id="70" name="TextBox 69">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7F6E3B8-5D7E-4694-9C76-4A20CE8BC225}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A7F6E3B8-5D7E-4694-9C76-4A20CE8BC225}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4084,7 +4084,7 @@
             <xdr:cNvPr id="71" name="TextBox 70">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{906512D9-9A66-46AE-8926-460E9A114CC7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{906512D9-9A66-46AE-8926-460E9A114CC7}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4141,7 +4141,7 @@
             <xdr:cNvPr id="72" name="TextBox 71">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26A36D85-1D7A-40CD-9F47-3E9AD7200564}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{26A36D85-1D7A-40CD-9F47-3E9AD7200564}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4198,7 +4198,7 @@
             <xdr:cNvPr id="73" name="TextBox 72">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46C13CA8-A356-4107-9E7D-3C5F8878BE8B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{46C13CA8-A356-4107-9E7D-3C5F8878BE8B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4252,7 +4252,7 @@
             <xdr:cNvPr id="74" name="TextBox 73">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{417C2585-CDDC-4BC3-A610-126F3D214155}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{417C2585-CDDC-4BC3-A610-126F3D214155}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4306,7 +4306,7 @@
             <xdr:cNvPr id="75" name="Oval 74">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C9BDB63-E0BC-4542-B6A1-EA31C4426EE7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2C9BDB63-E0BC-4542-B6A1-EA31C4426EE7}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4360,16 +4360,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>739588</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>49025</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1073710</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>383147</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>126188</xdr:rowOff>
+      <xdr:rowOff>90469</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4378,7 +4378,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2655794" y="907676"/>
+          <a:off x="3418494" y="869156"/>
           <a:ext cx="334122" cy="316688"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -4456,15 +4456,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>242047</xdr:colOff>
+      <xdr:colOff>1527922</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>140494</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>576169</xdr:colOff>
+      <xdr:colOff>1862044</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>88088</xdr:rowOff>
+      <xdr:rowOff>76182</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4473,7 +4473,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4825253" y="869576"/>
+          <a:off x="6385672" y="854869"/>
           <a:ext cx="334122" cy="316688"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -4551,15 +4551,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>741829</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>181535</xdr:rowOff>
+      <xdr:colOff>1444298</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>50566</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1075951</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>325857</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>117223</xdr:rowOff>
+      <xdr:rowOff>176754</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4568,7 +4568,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2658035" y="3946711"/>
+          <a:off x="3361204" y="4003441"/>
           <a:ext cx="334122" cy="316688"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -4646,15 +4646,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>277905</xdr:colOff>
+      <xdr:colOff>1468530</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>154641</xdr:rowOff>
+      <xdr:rowOff>190360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>612027</xdr:colOff>
+      <xdr:colOff>1802652</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>90329</xdr:rowOff>
+      <xdr:rowOff>126048</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4663,7 +4663,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4861111" y="3919817"/>
+          <a:off x="6326280" y="3952735"/>
           <a:ext cx="334122" cy="316688"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -5036,15 +5036,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.7109375" customWidth="1"/>
     <col min="7" max="7" width="30.28515625" customWidth="1"/>
     <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.5703125" bestFit="1" customWidth="1"/>
@@ -5746,37 +5747,37 @@
         <v>40</v>
       </c>
       <c r="C29" s="36"/>
-      <c r="F29" s="37" t="s">
+      <c r="E29" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="G29" s="37"/>
+      <c r="F29" s="37"/>
     </row>
-    <row r="30" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B30" s="26" t="s">
         <v>0</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G30" s="27" t="s">
-        <v>50</v>
+      <c r="E30" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="26" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B31" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C31" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G31" s="27" t="s">
-        <v>52</v>
+      <c r="E31" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="26" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="30" x14ac:dyDescent="0.25">
@@ -5786,11 +5787,11 @@
       <c r="C32" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G32" s="27" t="s">
-        <v>53</v>
+      <c r="E32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5800,85 +5801,87 @@
       <c r="C33" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G33" s="27" t="s">
-        <v>54</v>
+      <c r="E33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B34" s="26" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
+      <c r="E34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="35" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B35" s="26" t="s">
         <v>10</v>
       </c>
       <c r="C35" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G35" s="27" t="s">
-        <v>55</v>
+      <c r="E35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" s="27" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B36" s="26" t="s">
         <v>12</v>
       </c>
       <c r="C36" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G36" s="27" t="s">
-        <v>56</v>
-      </c>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
     </row>
-    <row r="37" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B37" s="26" t="s">
         <v>14</v>
       </c>
       <c r="C37" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="E37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37" s="27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="E38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F38" s="27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="E39" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G37" s="27" t="s">
+      <c r="F39" s="27" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B38" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="F38" s="1" t="s">
+    <row r="40" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="E40" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G38" s="27" t="s">
+      <c r="F40" s="27" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C39" s="26" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -7419,8 +7422,8 @@
   <mergeCells count="4">
     <mergeCell ref="I7:O7"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="F29:G29"/>
     <mergeCell ref="C44:G44"/>
+    <mergeCell ref="E29:F29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
